--- a/Release Files/2 - Board Assembly/TK2560_BOM Purchasing.xlsx
+++ b/Release Files/2 - Board Assembly/TK2560_BOM Purchasing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2560_TrainingKit\DesignFiles\2560_TrainingKit\Project Outputs for 2560_TrainingKit\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2560_TrainingKit\Release Files\2 - Board Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1A8ACBB-25BD-4DDC-9543-D52BC8472420}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5608FA4F-A134-4546-84C5-24BA63916B86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Part List Report" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="242">
   <si>
     <t>Project Full Path</t>
   </si>
@@ -347,9 +347,6 @@
     <t>CONN RCPT USB2.0 TYPEB 4POS R/A</t>
   </si>
   <si>
-    <t>TERM BLK 2P SIDE ENT 2.54MM PCB</t>
-  </si>
-  <si>
     <t>TERM BLK 3P SIDE ENT 2.54MM PCB</t>
   </si>
   <si>
@@ -744,6 +741,12 @@
   </si>
   <si>
     <t>Bill of Materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>TK2560_BOM Purchasing for Project</t>
   </si>
 </sst>
 </file>
@@ -1640,6 +1643,40 @@
     <xf numFmtId="2" fontId="8" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -1652,40 +1689,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2701,8 +2704,8 @@
   </sheetPr>
   <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView showGridLines="0" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2750,8 +2753,8 @@
       </c>
       <c r="D2" s="58"/>
       <c r="E2" s="24"/>
-      <c r="F2" s="91" t="s">
-        <v>29</v>
+      <c r="F2" s="87" t="s">
+        <v>241</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -2769,7 +2772,7 @@
       <c r="C3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="88" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="13"/>
@@ -2794,7 +2797,7 @@
       <c r="C4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="89" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="16"/>
@@ -2815,7 +2818,7 @@
       <c r="C5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="94" t="s">
+      <c r="D5" s="90" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="18"/>
@@ -2855,10 +2858,10 @@
       <c r="C7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="95" t="s">
+      <c r="E7" s="91" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="39"/>
@@ -2880,11 +2883,11 @@
       </c>
       <c r="D8" s="21">
         <f ca="1">TODAY()</f>
-        <v>44268</v>
+        <v>44271</v>
       </c>
       <c r="E8" s="22">
         <f ca="1">NOW()</f>
-        <v>44268.818179050926</v>
+        <v>44271.415749537038</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="20"/>
@@ -2918,34 +2921,34 @@
         <v>75</v>
       </c>
       <c r="H9" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="I9" s="36" t="s">
-        <v>151</v>
-      </c>
       <c r="J9" s="36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K9" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="L9" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="L9" s="44" t="s">
+      <c r="M9" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="M9" s="37" t="s">
+      <c r="N9" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="O9" s="37" t="s">
         <v>232</v>
-      </c>
-      <c r="O9" s="37" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A10" s="57"/>
       <c r="B10" s="29">
-        <f>ROW(B10) - ROW($B$9)</f>
+        <f t="shared" ref="B10:B41" si="0">ROW(B10) - ROW($B$9)</f>
         <v>1</v>
       </c>
       <c r="C10" s="28"/>
@@ -2961,10 +2964,10 @@
         <v>2</v>
       </c>
       <c r="I10" s="77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K10" s="41"/>
       <c r="L10" s="41"/>
@@ -2975,7 +2978,7 @@
     <row r="11" spans="1:15" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="57"/>
       <c r="B11" s="31">
-        <f>ROW(B11) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C11" s="32"/>
@@ -2991,10 +2994,10 @@
         <v>5</v>
       </c>
       <c r="I11" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K11" s="42"/>
       <c r="L11" s="42"/>
@@ -3005,7 +3008,7 @@
     <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="57"/>
       <c r="B12" s="29">
-        <f>ROW(B12) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C12" s="28"/>
@@ -3021,10 +3024,10 @@
         <v>1</v>
       </c>
       <c r="I12" s="77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K12" s="41"/>
       <c r="L12" s="41"/>
@@ -3035,7 +3038,7 @@
     <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="57"/>
       <c r="B13" s="31">
-        <f>ROW(B13) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C13" s="32"/>
@@ -3051,10 +3054,10 @@
         <v>9</v>
       </c>
       <c r="I13" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J13" s="32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K13" s="42"/>
       <c r="L13" s="42"/>
@@ -3065,7 +3068,7 @@
     <row r="14" spans="1:15" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A14" s="57"/>
       <c r="B14" s="29">
-        <f>ROW(B14) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C14" s="28"/>
@@ -3081,10 +3084,10 @@
         <v>2</v>
       </c>
       <c r="I14" s="77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K14" s="41"/>
       <c r="L14" s="41"/>
@@ -3095,7 +3098,7 @@
     <row r="15" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="57"/>
       <c r="B15" s="31">
-        <f>ROW(B15) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C15" s="32"/>
@@ -3111,10 +3114,10 @@
         <v>1</v>
       </c>
       <c r="I15" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J15" s="32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K15" s="42"/>
       <c r="L15" s="42"/>
@@ -3125,7 +3128,7 @@
     <row r="16" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="57"/>
       <c r="B16" s="29">
-        <f>ROW(B16) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C16" s="28"/>
@@ -3141,10 +3144,10 @@
         <v>1</v>
       </c>
       <c r="I16" s="77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J16" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K16" s="41"/>
       <c r="L16" s="41"/>
@@ -3155,7 +3158,7 @@
     <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="57"/>
       <c r="B17" s="31">
-        <f>ROW(B17) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C17" s="32"/>
@@ -3171,10 +3174,10 @@
         <v>1</v>
       </c>
       <c r="I17" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J17" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K17" s="42"/>
       <c r="L17" s="42"/>
@@ -3185,7 +3188,7 @@
     <row r="18" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="57"/>
       <c r="B18" s="29">
-        <f>ROW(B18) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C18" s="28"/>
@@ -3199,10 +3202,10 @@
         <v>1</v>
       </c>
       <c r="I18" s="77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J18" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K18" s="41"/>
       <c r="L18" s="41"/>
@@ -3213,7 +3216,7 @@
     <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="57"/>
       <c r="B19" s="31">
-        <f>ROW(B19) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C19" s="32"/>
@@ -3229,10 +3232,10 @@
         <v>1</v>
       </c>
       <c r="I19" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J19" s="32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K19" s="42"/>
       <c r="L19" s="42"/>
@@ -3243,7 +3246,7 @@
     <row r="20" spans="1:15" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" s="57"/>
       <c r="B20" s="29">
-        <f>ROW(B20) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C20" s="28"/>
@@ -3259,10 +3262,10 @@
         <v>6</v>
       </c>
       <c r="I20" s="77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J20" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K20" s="41"/>
       <c r="L20" s="41"/>
@@ -3273,7 +3276,7 @@
     <row r="21" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="57"/>
       <c r="B21" s="31">
-        <f>ROW(B21) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C21" s="32"/>
@@ -3289,10 +3292,10 @@
         <v>8</v>
       </c>
       <c r="I21" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J21" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K21" s="42"/>
       <c r="L21" s="42"/>
@@ -3303,7 +3306,7 @@
     <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="57"/>
       <c r="B22" s="29">
-        <f>ROW(B22) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C22" s="28"/>
@@ -3319,10 +3322,10 @@
         <v>1</v>
       </c>
       <c r="I22" s="77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J22" s="30" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K22" s="41"/>
       <c r="L22" s="41"/>
@@ -3333,7 +3336,7 @@
     <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="57"/>
       <c r="B23" s="31">
-        <f>ROW(B23) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C23" s="32"/>
@@ -3349,10 +3352,10 @@
         <v>1</v>
       </c>
       <c r="I23" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J23" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K23" s="42"/>
       <c r="L23" s="42"/>
@@ -3363,7 +3366,7 @@
     <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="57"/>
       <c r="B24" s="29">
-        <f>ROW(B24) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C24" s="28"/>
@@ -3379,10 +3382,10 @@
         <v>1</v>
       </c>
       <c r="I24" s="77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K24" s="41"/>
       <c r="L24" s="41"/>
@@ -3393,7 +3396,7 @@
     <row r="25" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="57"/>
       <c r="B25" s="31">
-        <f>ROW(B25) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C25" s="32"/>
@@ -3409,10 +3412,10 @@
         <v>2</v>
       </c>
       <c r="I25" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J25" s="32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K25" s="42"/>
       <c r="L25" s="42"/>
@@ -3423,7 +3426,7 @@
     <row r="26" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="57"/>
       <c r="B26" s="29">
-        <f>ROW(B26) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C26" s="28"/>
@@ -3439,10 +3442,10 @@
         <v>2</v>
       </c>
       <c r="I26" s="77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J26" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K26" s="41"/>
       <c r="L26" s="41"/>
@@ -3453,7 +3456,7 @@
     <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="57"/>
       <c r="B27" s="31">
-        <f>ROW(B27) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C27" s="32"/>
@@ -3469,10 +3472,10 @@
         <v>1</v>
       </c>
       <c r="I27" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J27" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K27" s="42"/>
       <c r="L27" s="42"/>
@@ -3483,7 +3486,7 @@
     <row r="28" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A28" s="57"/>
       <c r="B28" s="29">
-        <f>ROW(B28) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C28" s="28"/>
@@ -3499,10 +3502,10 @@
         <v>2</v>
       </c>
       <c r="I28" s="77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J28" s="30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K28" s="41"/>
       <c r="L28" s="41"/>
@@ -3513,7 +3516,7 @@
     <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="57"/>
       <c r="B29" s="31">
-        <f>ROW(B29) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C29" s="32"/>
@@ -3529,10 +3532,10 @@
         <v>1</v>
       </c>
       <c r="I29" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J29" s="32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K29" s="42"/>
       <c r="L29" s="42"/>
@@ -3543,7 +3546,7 @@
     <row r="30" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="57"/>
       <c r="B30" s="29">
-        <f>ROW(B30) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C30" s="28"/>
@@ -3559,10 +3562,10 @@
         <v>1</v>
       </c>
       <c r="I30" s="77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J30" s="30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K30" s="41"/>
       <c r="L30" s="41"/>
@@ -3573,7 +3576,7 @@
     <row r="31" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="57"/>
       <c r="B31" s="31">
-        <f>ROW(B31) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C31" s="32"/>
@@ -3589,10 +3592,10 @@
         <v>2</v>
       </c>
       <c r="I31" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J31" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K31" s="42"/>
       <c r="L31" s="42"/>
@@ -3603,7 +3606,7 @@
     <row r="32" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="57"/>
       <c r="B32" s="29">
-        <f>ROW(B32) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C32" s="28"/>
@@ -3619,10 +3622,10 @@
         <v>1</v>
       </c>
       <c r="I32" s="77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J32" s="30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K32" s="41"/>
       <c r="L32" s="41"/>
@@ -3633,7 +3636,7 @@
     <row r="33" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="57"/>
       <c r="B33" s="31">
-        <f>ROW(B33) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C33" s="32"/>
@@ -3649,10 +3652,10 @@
         <v>1</v>
       </c>
       <c r="I33" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J33" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K33" s="42"/>
       <c r="L33" s="42"/>
@@ -3663,7 +3666,7 @@
     <row r="34" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="57"/>
       <c r="B34" s="29">
-        <f>ROW(B34) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C34" s="28"/>
@@ -3679,10 +3682,10 @@
         <v>15</v>
       </c>
       <c r="I34" s="77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J34" s="30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K34" s="41"/>
       <c r="L34" s="41"/>
@@ -3693,7 +3696,7 @@
     <row r="35" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="57"/>
       <c r="B35" s="31">
-        <f>ROW(B35) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C35" s="32"/>
@@ -3707,10 +3710,10 @@
         <v>3</v>
       </c>
       <c r="I35" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J35" s="32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K35" s="42"/>
       <c r="L35" s="42"/>
@@ -3721,7 +3724,7 @@
     <row r="36" spans="1:15" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A36" s="57"/>
       <c r="B36" s="29">
-        <f>ROW(B36) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C36" s="28"/>
@@ -3737,10 +3740,10 @@
         <v>6</v>
       </c>
       <c r="I36" s="77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J36" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K36" s="41"/>
       <c r="L36" s="41"/>
@@ -3751,7 +3754,7 @@
     <row r="37" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A37" s="57"/>
       <c r="B37" s="31">
-        <f>ROW(B37) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C37" s="32"/>
@@ -3767,10 +3770,10 @@
         <v>2</v>
       </c>
       <c r="I37" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J37" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K37" s="42"/>
       <c r="L37" s="42"/>
@@ -3781,7 +3784,7 @@
     <row r="38" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A38" s="57"/>
       <c r="B38" s="29">
-        <f>ROW(B38) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C38" s="28"/>
@@ -3797,10 +3800,10 @@
         <v>11</v>
       </c>
       <c r="I38" s="77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J38" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K38" s="41"/>
       <c r="L38" s="41"/>
@@ -3811,7 +3814,7 @@
     <row r="39" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="57"/>
       <c r="B39" s="31">
-        <f>ROW(B39) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C39" s="32"/>
@@ -3827,10 +3830,10 @@
         <v>1</v>
       </c>
       <c r="I39" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J39" s="32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K39" s="42"/>
       <c r="L39" s="42"/>
@@ -3841,7 +3844,7 @@
     <row r="40" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="57"/>
       <c r="B40" s="29">
-        <f>ROW(B40) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C40" s="28"/>
@@ -3857,10 +3860,10 @@
         <v>1</v>
       </c>
       <c r="I40" s="77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J40" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K40" s="41"/>
       <c r="L40" s="41"/>
@@ -3871,7 +3874,7 @@
     <row r="41" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="57"/>
       <c r="B41" s="31">
-        <f>ROW(B41) - ROW($B$9)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C41" s="32"/>
@@ -3885,10 +3888,10 @@
         <v>1</v>
       </c>
       <c r="I41" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J41" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K41" s="42"/>
       <c r="L41" s="42"/>
@@ -3899,7 +3902,7 @@
     <row r="42" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="57"/>
       <c r="B42" s="29">
-        <f>ROW(B42) - ROW($B$9)</f>
+        <f t="shared" ref="B42:B73" si="1">ROW(B42) - ROW($B$9)</f>
         <v>33</v>
       </c>
       <c r="C42" s="28"/>
@@ -3907,16 +3910,16 @@
       <c r="E42" s="30"/>
       <c r="F42" s="30"/>
       <c r="G42" s="30" t="s">
-        <v>108</v>
+        <v>240</v>
       </c>
       <c r="H42" s="30">
         <v>3</v>
       </c>
       <c r="I42" s="77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J42" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K42" s="41"/>
       <c r="L42" s="41"/>
@@ -3927,7 +3930,7 @@
     <row r="43" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="57"/>
       <c r="B43" s="31">
-        <f>ROW(B43) - ROW($B$9)</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="C43" s="32"/>
@@ -3935,16 +3938,16 @@
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H43" s="32">
         <v>1</v>
       </c>
       <c r="I43" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J43" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K43" s="42"/>
       <c r="L43" s="42"/>
@@ -3955,7 +3958,7 @@
     <row r="44" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="57"/>
       <c r="B44" s="29">
-        <f>ROW(B44) - ROW($B$9)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C44" s="28"/>
@@ -3965,16 +3968,16 @@
         <v>67</v>
       </c>
       <c r="G44" s="30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H44" s="30">
         <v>1</v>
       </c>
       <c r="I44" s="77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J44" s="30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K44" s="41"/>
       <c r="L44" s="41"/>
@@ -3985,7 +3988,7 @@
     <row r="45" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="57"/>
       <c r="B45" s="31">
-        <f>ROW(B45) - ROW($B$9)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C45" s="32"/>
@@ -3995,16 +3998,16 @@
         <v>68</v>
       </c>
       <c r="G45" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H45" s="32">
         <v>1</v>
       </c>
       <c r="I45" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J45" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K45" s="42"/>
       <c r="L45" s="42"/>
@@ -4015,7 +4018,7 @@
     <row r="46" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A46" s="57"/>
       <c r="B46" s="29">
-        <f>ROW(B46) - ROW($B$9)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="C46" s="28"/>
@@ -4025,16 +4028,16 @@
         <v>69</v>
       </c>
       <c r="G46" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H46" s="30">
         <v>1</v>
       </c>
       <c r="I46" s="77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J46" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K46" s="41"/>
       <c r="L46" s="41"/>
@@ -4045,7 +4048,7 @@
     <row r="47" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="57"/>
       <c r="B47" s="31">
-        <f>ROW(B47) - ROW($B$9)</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C47" s="32"/>
@@ -4059,10 +4062,10 @@
         <v>2</v>
       </c>
       <c r="I47" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J47" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K47" s="42"/>
       <c r="L47" s="42"/>
@@ -4073,7 +4076,7 @@
     <row r="48" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="57"/>
       <c r="B48" s="29">
-        <f>ROW(B48) - ROW($B$9)</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="C48" s="28"/>
@@ -4081,16 +4084,16 @@
       <c r="E48" s="30"/>
       <c r="F48" s="30"/>
       <c r="G48" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H48" s="30">
         <v>1</v>
       </c>
       <c r="I48" s="77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J48" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K48" s="41"/>
       <c r="L48" s="41"/>
@@ -4101,7 +4104,7 @@
     <row r="49" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A49" s="57"/>
       <c r="B49" s="31">
-        <f>ROW(B49) - ROW($B$9)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="C49" s="32"/>
@@ -4111,16 +4114,16 @@
         <v>70</v>
       </c>
       <c r="G49" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H49" s="32">
         <v>2</v>
       </c>
       <c r="I49" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J49" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K49" s="42"/>
       <c r="L49" s="42"/>
@@ -4131,7 +4134,7 @@
     <row r="50" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="57"/>
       <c r="B50" s="29">
-        <f>ROW(B50) - ROW($B$9)</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="C50" s="28"/>
@@ -4139,7 +4142,7 @@
       <c r="E50" s="30"/>
       <c r="F50" s="30"/>
       <c r="G50" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H50" s="30">
         <v>4</v>
@@ -4155,7 +4158,7 @@
     <row r="51" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="57"/>
       <c r="B51" s="31">
-        <f>ROW(B51) - ROW($B$9)</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="C51" s="32"/>
@@ -4165,16 +4168,16 @@
         <v>60</v>
       </c>
       <c r="G51" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H51" s="32">
         <v>1</v>
       </c>
       <c r="I51" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J51" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K51" s="42"/>
       <c r="L51" s="42"/>
@@ -4185,7 +4188,7 @@
     <row r="52" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A52" s="57"/>
       <c r="B52" s="29">
-        <f>ROW(B52) - ROW($B$9)</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="C52" s="28"/>
@@ -4193,16 +4196,16 @@
       <c r="E52" s="30"/>
       <c r="F52" s="30"/>
       <c r="G52" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H52" s="30">
         <v>2</v>
       </c>
       <c r="I52" s="77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J52" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K52" s="41"/>
       <c r="L52" s="41"/>
@@ -4213,7 +4216,7 @@
     <row r="53" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A53" s="57"/>
       <c r="B53" s="31">
-        <f>ROW(B53) - ROW($B$9)</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="C53" s="32"/>
@@ -4221,16 +4224,16 @@
       <c r="E53" s="32"/>
       <c r="F53" s="32"/>
       <c r="G53" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H53" s="32">
         <v>1</v>
       </c>
       <c r="I53" s="78" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J53" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K53" s="42"/>
       <c r="L53" s="42"/>
@@ -4241,7 +4244,7 @@
     <row r="54" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="57"/>
       <c r="B54" s="29">
-        <f>ROW(B54) - ROW($B$9)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="C54" s="28"/>
@@ -4249,16 +4252,16 @@
       <c r="E54" s="30"/>
       <c r="F54" s="30"/>
       <c r="G54" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H54" s="30">
         <v>8</v>
       </c>
       <c r="I54" s="77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J54" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K54" s="41"/>
       <c r="L54" s="41"/>
@@ -4269,7 +4272,7 @@
     <row r="55" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="57"/>
       <c r="B55" s="31">
-        <f>ROW(B55) - ROW($B$9)</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="C55" s="32"/>
@@ -4279,16 +4282,16 @@
         <v>71</v>
       </c>
       <c r="G55" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H55" s="32">
         <v>1</v>
       </c>
       <c r="I55" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J55" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K55" s="42"/>
       <c r="L55" s="42"/>
@@ -4299,7 +4302,7 @@
     <row r="56" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="57"/>
       <c r="B56" s="29">
-        <f>ROW(B56) - ROW($B$9)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="C56" s="28"/>
@@ -4307,7 +4310,7 @@
       <c r="E56" s="30"/>
       <c r="F56" s="30"/>
       <c r="G56" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H56" s="30">
         <v>3</v>
@@ -4323,7 +4326,7 @@
     <row r="57" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A57" s="57"/>
       <c r="B57" s="31">
-        <f>ROW(B57) - ROW($B$9)</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="C57" s="32"/>
@@ -4331,7 +4334,7 @@
       <c r="E57" s="32"/>
       <c r="F57" s="32"/>
       <c r="G57" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H57" s="32">
         <v>1</v>
@@ -4347,7 +4350,7 @@
     <row r="58" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A58" s="57"/>
       <c r="B58" s="29">
-        <f>ROW(B58) - ROW($B$9)</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="C58" s="28"/>
@@ -4357,16 +4360,16 @@
         <v>72</v>
       </c>
       <c r="G58" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H58" s="30">
         <v>2</v>
       </c>
       <c r="I58" s="77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J58" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K58" s="41"/>
       <c r="L58" s="41"/>
@@ -4377,7 +4380,7 @@
     <row r="59" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A59" s="57"/>
       <c r="B59" s="31">
-        <f>ROW(B59) - ROW($B$9)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="C59" s="32"/>
@@ -4385,16 +4388,16 @@
       <c r="E59" s="32"/>
       <c r="F59" s="32"/>
       <c r="G59" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H59" s="32">
         <v>1</v>
       </c>
       <c r="I59" s="78" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J59" s="32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K59" s="42"/>
       <c r="L59" s="42"/>
@@ -4405,7 +4408,7 @@
     <row r="60" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="57"/>
       <c r="B60" s="29">
-        <f>ROW(B60) - ROW($B$9)</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="C60" s="28"/>
@@ -4413,16 +4416,16 @@
       <c r="E60" s="30"/>
       <c r="F60" s="30"/>
       <c r="G60" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H60" s="30">
         <v>1</v>
       </c>
       <c r="I60" s="77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J60" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K60" s="41"/>
       <c r="L60" s="41"/>
@@ -4433,7 +4436,7 @@
     <row r="61" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="57"/>
       <c r="B61" s="31">
-        <f>ROW(B61) - ROW($B$9)</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="C61" s="32"/>
@@ -4441,16 +4444,16 @@
       <c r="E61" s="32"/>
       <c r="F61" s="32"/>
       <c r="G61" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H61" s="32">
         <v>4</v>
       </c>
       <c r="I61" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J61" s="32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K61" s="42"/>
       <c r="L61" s="42"/>
@@ -4461,7 +4464,7 @@
     <row r="62" spans="1:15" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A62" s="57"/>
       <c r="B62" s="29">
-        <f>ROW(B62) - ROW($B$9)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="C62" s="28"/>
@@ -4471,16 +4474,16 @@
         <v>73</v>
       </c>
       <c r="G62" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H62" s="30">
         <v>5</v>
       </c>
       <c r="I62" s="77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J62" s="30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K62" s="41"/>
       <c r="L62" s="41"/>
@@ -4491,7 +4494,7 @@
     <row r="63" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="57"/>
       <c r="B63" s="31">
-        <f>ROW(B63) - ROW($B$9)</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="C63" s="32"/>
@@ -4513,7 +4516,7 @@
     <row r="64" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A64" s="57"/>
       <c r="B64" s="29">
-        <f>ROW(B64) - ROW($B$9)</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="C64" s="28"/>
@@ -4523,16 +4526,16 @@
         <v>74</v>
       </c>
       <c r="G64" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H64" s="30">
         <v>2</v>
       </c>
       <c r="I64" s="77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J64" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K64" s="41"/>
       <c r="L64" s="41"/>
@@ -4543,7 +4546,7 @@
     <row r="65" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="57"/>
       <c r="B65" s="31">
-        <f>ROW(B65) - ROW($B$9)</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="C65" s="32" t="s">
@@ -4553,16 +4556,16 @@
       <c r="E65" s="32"/>
       <c r="F65" s="32"/>
       <c r="G65" s="32" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H65" s="32">
         <v>1</v>
       </c>
       <c r="I65" s="78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J65" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K65" s="42"/>
       <c r="L65" s="42"/>
@@ -4573,7 +4576,7 @@
     <row r="66" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="57"/>
       <c r="B66" s="29">
-        <f>ROW(B66) - ROW($B$9)</f>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="C66" s="28" t="s">
@@ -4583,16 +4586,16 @@
       <c r="E66" s="30"/>
       <c r="F66" s="30"/>
       <c r="G66" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H66" s="30">
         <v>1</v>
       </c>
       <c r="I66" s="77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J66" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K66" s="41"/>
       <c r="L66" s="41"/>
@@ -4603,7 +4606,7 @@
     <row r="67" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A67" s="57"/>
       <c r="B67" s="31">
-        <f>ROW(B67) - ROW($B$9)</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="C67" s="32" t="s">
@@ -4613,16 +4616,16 @@
       <c r="E67" s="32"/>
       <c r="F67" s="32"/>
       <c r="G67" s="32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H67" s="32">
         <v>1</v>
       </c>
       <c r="I67" s="78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J67" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K67" s="42"/>
       <c r="L67" s="42"/>
@@ -4633,7 +4636,7 @@
     <row r="68" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="57"/>
       <c r="B68" s="29">
-        <f>ROW(B68) - ROW($B$9)</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="C68" s="28" t="s">
@@ -4643,16 +4646,16 @@
       <c r="E68" s="30"/>
       <c r="F68" s="30"/>
       <c r="G68" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H68" s="30">
         <v>2</v>
       </c>
       <c r="I68" s="77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J68" s="30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K68" s="41"/>
       <c r="L68" s="41"/>
@@ -4663,7 +4666,7 @@
     <row r="69" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A69" s="57"/>
       <c r="B69" s="31">
-        <f>ROW(B69) - ROW($B$9)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="C69" s="32" t="s">
@@ -4673,14 +4676,14 @@
       <c r="E69" s="32"/>
       <c r="F69" s="32"/>
       <c r="G69" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H69" s="32">
         <v>1</v>
       </c>
       <c r="I69" s="78"/>
       <c r="J69" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K69" s="42"/>
       <c r="L69" s="42"/>
@@ -4691,7 +4694,7 @@
     <row r="70" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A70" s="57"/>
       <c r="B70" s="29">
-        <f>ROW(B70) - ROW($B$9)</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="C70" s="28" t="s">
@@ -4701,16 +4704,16 @@
       <c r="E70" s="30"/>
       <c r="F70" s="30"/>
       <c r="G70" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H70" s="30">
         <v>1</v>
       </c>
       <c r="I70" s="77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J70" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K70" s="41"/>
       <c r="L70" s="41"/>
@@ -4721,7 +4724,7 @@
     <row r="71" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="57"/>
       <c r="B71" s="31">
-        <f>ROW(B71) - ROW($B$9)</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="C71" s="32" t="s">
@@ -4731,16 +4734,16 @@
       <c r="E71" s="32"/>
       <c r="F71" s="32"/>
       <c r="G71" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H71" s="32">
         <v>1</v>
       </c>
       <c r="I71" s="78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J71" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K71" s="42"/>
       <c r="L71" s="42"/>
@@ -4751,7 +4754,7 @@
     <row r="72" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="57"/>
       <c r="B72" s="29">
-        <f>ROW(B72) - ROW($B$9)</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="C72" s="28" t="s">
@@ -4761,16 +4764,16 @@
       <c r="E72" s="30"/>
       <c r="F72" s="30"/>
       <c r="G72" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H72" s="30">
         <v>1</v>
       </c>
       <c r="I72" s="77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J72" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K72" s="41"/>
       <c r="L72" s="41"/>
@@ -4781,7 +4784,7 @@
     <row r="73" spans="1:15" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A73" s="57"/>
       <c r="B73" s="31">
-        <f>ROW(B73) - ROW($B$9)</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="C73" s="32" t="s">
@@ -4791,16 +4794,16 @@
       <c r="E73" s="32"/>
       <c r="F73" s="32"/>
       <c r="G73" s="32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H73" s="32">
         <v>1</v>
       </c>
       <c r="I73" s="78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J73" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K73" s="42"/>
       <c r="L73" s="42"/>
@@ -4811,7 +4814,7 @@
     <row r="74" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A74" s="57"/>
       <c r="B74" s="29">
-        <f>ROW(B74) - ROW($B$9)</f>
+        <f t="shared" ref="B74:B87" si="2">ROW(B74) - ROW($B$9)</f>
         <v>65</v>
       </c>
       <c r="C74" s="28" t="s">
@@ -4821,16 +4824,16 @@
       <c r="E74" s="30"/>
       <c r="F74" s="30"/>
       <c r="G74" s="30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H74" s="30">
         <v>1</v>
       </c>
       <c r="I74" s="77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J74" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K74" s="41"/>
       <c r="L74" s="41"/>
@@ -4841,7 +4844,7 @@
     <row r="75" spans="1:15" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A75" s="57"/>
       <c r="B75" s="31">
-        <f>ROW(B75) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="C75" s="32" t="s">
@@ -4851,16 +4854,16 @@
       <c r="E75" s="32"/>
       <c r="F75" s="32"/>
       <c r="G75" s="32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H75" s="32">
         <v>1</v>
       </c>
       <c r="I75" s="78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J75" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K75" s="42"/>
       <c r="L75" s="42"/>
@@ -4871,7 +4874,7 @@
     <row r="76" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A76" s="57"/>
       <c r="B76" s="29">
-        <f>ROW(B76) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="C76" s="28" t="s">
@@ -4881,16 +4884,16 @@
       <c r="E76" s="30"/>
       <c r="F76" s="30"/>
       <c r="G76" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H76" s="30">
         <v>1</v>
       </c>
       <c r="I76" s="77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J76" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K76" s="41"/>
       <c r="L76" s="41"/>
@@ -4901,7 +4904,7 @@
     <row r="77" spans="1:15" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A77" s="57"/>
       <c r="B77" s="31">
-        <f>ROW(B77) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="C77" s="32" t="s">
@@ -4911,16 +4914,16 @@
       <c r="E77" s="32"/>
       <c r="F77" s="32"/>
       <c r="G77" s="32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H77" s="32">
         <v>1</v>
       </c>
       <c r="I77" s="78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J77" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K77" s="42"/>
       <c r="L77" s="42"/>
@@ -4931,7 +4934,7 @@
     <row r="78" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A78" s="57"/>
       <c r="B78" s="29">
-        <f>ROW(B78) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="C78" s="28" t="s">
@@ -4941,16 +4944,16 @@
       <c r="E78" s="30"/>
       <c r="F78" s="30"/>
       <c r="G78" s="30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H78" s="30">
         <v>1</v>
       </c>
       <c r="I78" s="77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J78" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K78" s="41"/>
       <c r="L78" s="41"/>
@@ -4961,7 +4964,7 @@
     <row r="79" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="57"/>
       <c r="B79" s="31">
-        <f>ROW(B79) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="C79" s="32" t="s">
@@ -4971,16 +4974,16 @@
       <c r="E79" s="32"/>
       <c r="F79" s="32"/>
       <c r="G79" s="32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H79" s="32">
         <v>1</v>
       </c>
       <c r="I79" s="78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J79" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K79" s="42"/>
       <c r="L79" s="42"/>
@@ -4991,7 +4994,7 @@
     <row r="80" spans="1:15" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A80" s="57"/>
       <c r="B80" s="29">
-        <f>ROW(B80) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="C80" s="28" t="s">
@@ -5001,16 +5004,16 @@
       <c r="E80" s="30"/>
       <c r="F80" s="30"/>
       <c r="G80" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H80" s="30">
         <v>1</v>
       </c>
       <c r="I80" s="77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J80" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K80" s="41"/>
       <c r="L80" s="41"/>
@@ -5021,7 +5024,7 @@
     <row r="81" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A81" s="57"/>
       <c r="B81" s="31">
-        <f>ROW(B81) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="C81" s="32" t="s">
@@ -5031,16 +5034,16 @@
       <c r="E81" s="32"/>
       <c r="F81" s="32"/>
       <c r="G81" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H81" s="32">
         <v>1</v>
       </c>
       <c r="I81" s="78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J81" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K81" s="42"/>
       <c r="L81" s="42"/>
@@ -5051,7 +5054,7 @@
     <row r="82" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A82" s="57"/>
       <c r="B82" s="29">
-        <f>ROW(B82) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="C82" s="28" t="s">
@@ -5061,16 +5064,16 @@
       <c r="E82" s="30"/>
       <c r="F82" s="30"/>
       <c r="G82" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H82" s="30">
         <v>1</v>
       </c>
       <c r="I82" s="77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J82" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K82" s="41"/>
       <c r="L82" s="41"/>
@@ -5081,7 +5084,7 @@
     <row r="83" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A83" s="57"/>
       <c r="B83" s="31">
-        <f>ROW(B83) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="C83" s="32" t="s">
@@ -5091,14 +5094,14 @@
       <c r="E83" s="32"/>
       <c r="F83" s="32"/>
       <c r="G83" s="32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H83" s="32">
         <v>1</v>
       </c>
       <c r="I83" s="78"/>
       <c r="J83" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K83" s="42"/>
       <c r="L83" s="42"/>
@@ -5109,7 +5112,7 @@
     <row r="84" spans="1:15" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A84" s="57"/>
       <c r="B84" s="29">
-        <f>ROW(B84) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="C84" s="28" t="s">
@@ -5119,16 +5122,16 @@
       <c r="E84" s="30"/>
       <c r="F84" s="30"/>
       <c r="G84" s="30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H84" s="30">
         <v>1</v>
       </c>
       <c r="I84" s="77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J84" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K84" s="41"/>
       <c r="L84" s="41"/>
@@ -5139,7 +5142,7 @@
     <row r="85" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="57"/>
       <c r="B85" s="31">
-        <f>ROW(B85) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="C85" s="32" t="s">
@@ -5149,16 +5152,16 @@
       <c r="E85" s="32"/>
       <c r="F85" s="32"/>
       <c r="G85" s="32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H85" s="32">
         <v>1</v>
       </c>
       <c r="I85" s="78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J85" s="32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K85" s="42"/>
       <c r="L85" s="42"/>
@@ -5169,7 +5172,7 @@
     <row r="86" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="57"/>
       <c r="B86" s="29">
-        <f>ROW(B86) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="C86" s="28" t="s">
@@ -5179,16 +5182,16 @@
       <c r="E86" s="30"/>
       <c r="F86" s="30"/>
       <c r="G86" s="30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H86" s="30">
         <v>1</v>
       </c>
       <c r="I86" s="77" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J86" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K86" s="41"/>
       <c r="L86" s="41"/>
@@ -5199,7 +5202,7 @@
     <row r="87" spans="1:15" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A87" s="57"/>
       <c r="B87" s="31">
-        <f>ROW(B87) - ROW($B$9)</f>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="C87" s="32" t="s">
@@ -5209,16 +5212,16 @@
       <c r="E87" s="32"/>
       <c r="F87" s="32"/>
       <c r="G87" s="32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H87" s="32">
         <v>1</v>
       </c>
       <c r="I87" s="78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J87" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K87" s="42"/>
       <c r="L87" s="42"/>
@@ -5254,10 +5257,10 @@
     </row>
     <row r="89" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="57"/>
-      <c r="B89" s="87" t="s">
+      <c r="B89" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C89" s="87"/>
+      <c r="C89" s="98"/>
       <c r="D89" s="5"/>
       <c r="E89" s="7"/>
       <c r="F89" s="51" t="s">
@@ -5281,7 +5284,7 @@
       <c r="E90" s="8"/>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
-      <c r="H90" s="96" t="s">
+      <c r="H90" s="92" t="s">
         <v>34</v>
       </c>
       <c r="I90" s="84" t="s">
@@ -5291,12 +5294,12 @@
         <v>23</v>
       </c>
       <c r="K90" s="39"/>
-      <c r="L90" s="88">
+      <c r="L90" s="99">
         <f>N88</f>
         <v>0</v>
       </c>
-      <c r="M90" s="89"/>
-      <c r="N90" s="97" t="s">
+      <c r="M90" s="100"/>
+      <c r="N90" s="93" t="s">
         <v>35</v>
       </c>
       <c r="O90" s="67"/>
@@ -5315,12 +5318,12 @@
         <v>26</v>
       </c>
       <c r="K91" s="6"/>
-      <c r="L91" s="90">
+      <c r="L91" s="101">
         <f>L90/H90</f>
         <v>0</v>
       </c>
-      <c r="M91" s="90"/>
-      <c r="N91" s="98" t="s">
+      <c r="M91" s="101"/>
+      <c r="N91" s="94" t="s">
         <v>35</v>
       </c>
       <c r="O91" s="67"/>
@@ -5772,8 +5775,8 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5786,15 +5789,15 @@
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99" t="s">
-        <v>234</v>
+      <c r="B1" s="95" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="96" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5802,7 +5805,7 @@
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="101" t="s">
+      <c r="B3" s="97" t="s">
         <v>31</v>
       </c>
     </row>
@@ -5810,7 +5813,7 @@
       <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="96" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5818,15 +5821,15 @@
       <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="101" t="s">
-        <v>234</v>
+      <c r="B5" s="97" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="96" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5834,15 +5837,15 @@
       <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="101" t="s">
-        <v>235</v>
+      <c r="B7" s="97" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="96" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5850,7 +5853,7 @@
       <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="97" t="s">
         <v>32</v>
       </c>
     </row>
@@ -5858,40 +5861,40 @@
       <c r="A10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="100" t="s">
-        <v>236</v>
+      <c r="B10" s="96" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="101" t="s">
-        <v>237</v>
+      <c r="B11" s="97" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="100" t="s">
-        <v>238</v>
+      <c r="B12" s="96" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="101" t="s">
-        <v>239</v>
+      <c r="B13" s="97" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="100" t="s">
-        <v>240</v>
+      <c r="B14" s="96" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
